--- a/data/evaluation/evaluation_North_Summer_Pears.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Pears.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2750.801761013336</v>
+        <v>2793.020253298193</v>
       </c>
       <c r="C4" t="n">
-        <v>15220012.60996795</v>
+        <v>15479048.78053692</v>
       </c>
       <c r="D4" t="n">
-        <v>3901.28345675727</v>
+        <v>3934.342229717302</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1776752062529078</v>
+        <v>0.163679694488571</v>
       </c>
     </row>
     <row r="5">
